--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2532.644066743019</v>
+        <v>2796.798490397158</v>
       </c>
       <c r="AB2" t="n">
-        <v>3465.275344488546</v>
+        <v>3826.703080602858</v>
       </c>
       <c r="AC2" t="n">
-        <v>3134.554329154921</v>
+        <v>3461.487909401482</v>
       </c>
       <c r="AD2" t="n">
-        <v>2532644.066743019</v>
+        <v>2796798.490397158</v>
       </c>
       <c r="AE2" t="n">
-        <v>3465275.344488546</v>
+        <v>3826703.080602858</v>
       </c>
       <c r="AF2" t="n">
         <v>2.994642156042626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3134554.329154921</v>
+        <v>3461487.909401482</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>900.8729411299042</v>
+        <v>1047.632429347568</v>
       </c>
       <c r="AB3" t="n">
-        <v>1232.614101763128</v>
+        <v>1433.416908114203</v>
       </c>
       <c r="AC3" t="n">
-        <v>1114.975141875612</v>
+        <v>1296.613610217049</v>
       </c>
       <c r="AD3" t="n">
-        <v>900872.9411299042</v>
+        <v>1047632.429347568</v>
       </c>
       <c r="AE3" t="n">
-        <v>1232614.101763128</v>
+        <v>1433416.908114203</v>
       </c>
       <c r="AF3" t="n">
         <v>5.651774957140069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1114975.141875612</v>
+        <v>1296613.610217049</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>685.3784044874277</v>
+        <v>802.8406597316078</v>
       </c>
       <c r="AB4" t="n">
-        <v>937.7649697809017</v>
+        <v>1098.482009474958</v>
       </c>
       <c r="AC4" t="n">
-        <v>848.2659972264131</v>
+        <v>993.6444282198506</v>
       </c>
       <c r="AD4" t="n">
-        <v>685378.4044874277</v>
+        <v>802840.6597316079</v>
       </c>
       <c r="AE4" t="n">
-        <v>937764.9697809017</v>
+        <v>1098482.009474958</v>
       </c>
       <c r="AF4" t="n">
         <v>6.648482270962558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.60833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>848265.9972264131</v>
+        <v>993644.4282198506</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.1322912025918</v>
+        <v>730.738705368719</v>
       </c>
       <c r="AB5" t="n">
-        <v>852.5970914798814</v>
+        <v>999.828934601925</v>
       </c>
       <c r="AC5" t="n">
-        <v>771.2264216965742</v>
+        <v>904.4066643522395</v>
       </c>
       <c r="AD5" t="n">
-        <v>623132.2912025917</v>
+        <v>730738.7053687191</v>
       </c>
       <c r="AE5" t="n">
-        <v>852597.0914798814</v>
+        <v>999828.934601925</v>
       </c>
       <c r="AF5" t="n">
         <v>7.001059007824935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.41666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>771226.4216965742</v>
+        <v>904406.6643522396</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>624.700397737663</v>
+        <v>732.3068119037906</v>
       </c>
       <c r="AB6" t="n">
-        <v>854.7426440211439</v>
+        <v>1001.974487143188</v>
       </c>
       <c r="AC6" t="n">
-        <v>773.1672057146006</v>
+        <v>906.347448370266</v>
       </c>
       <c r="AD6" t="n">
-        <v>624700.397737663</v>
+        <v>732306.8119037906</v>
       </c>
       <c r="AE6" t="n">
-        <v>854742.6440211439</v>
+        <v>1001974.487143188</v>
       </c>
       <c r="AF6" t="n">
         <v>6.999175585085287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.425</v>
       </c>
       <c r="AH6" t="n">
-        <v>773167.2057146006</v>
+        <v>906347.448370266</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1587.496170215999</v>
+        <v>1790.686217141785</v>
       </c>
       <c r="AB2" t="n">
-        <v>2172.082295477711</v>
+        <v>2450.095881793785</v>
       </c>
       <c r="AC2" t="n">
-        <v>1964.781809733966</v>
+        <v>2216.262169566553</v>
       </c>
       <c r="AD2" t="n">
-        <v>1587496.170215999</v>
+        <v>1790686.217141785</v>
       </c>
       <c r="AE2" t="n">
-        <v>2172082.295477711</v>
+        <v>2450095.881793785</v>
       </c>
       <c r="AF2" t="n">
         <v>4.184271087248794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1964781.809733966</v>
+        <v>2216262.169566553</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.2511188502732</v>
+        <v>841.9967725751933</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.0063795801788</v>
+        <v>1152.057130513334</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.4759461606384</v>
+        <v>1042.106414899478</v>
       </c>
       <c r="AD3" t="n">
-        <v>716251.1188502732</v>
+        <v>841996.7725751933</v>
       </c>
       <c r="AE3" t="n">
-        <v>980006.3795801788</v>
+        <v>1152057.130513334</v>
       </c>
       <c r="AF3" t="n">
         <v>6.817987817697945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>886475.9461606384</v>
+        <v>1042106.414899478</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.9614065609295</v>
+        <v>713.0938309434461</v>
       </c>
       <c r="AB4" t="n">
-        <v>816.7889325352148</v>
+        <v>975.6864389763462</v>
       </c>
       <c r="AC4" t="n">
-        <v>738.83574318452</v>
+        <v>882.5682946249608</v>
       </c>
       <c r="AD4" t="n">
-        <v>596961.4065609295</v>
+        <v>713093.830943446</v>
       </c>
       <c r="AE4" t="n">
-        <v>816788.9325352148</v>
+        <v>975686.4389763462</v>
       </c>
       <c r="AF4" t="n">
         <v>7.495170382350208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>738835.7431845199</v>
+        <v>882568.2946249607</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>597.7707745092582</v>
+        <v>713.9031988917748</v>
       </c>
       <c r="AB5" t="n">
-        <v>817.896345468912</v>
+        <v>976.7938519100435</v>
       </c>
       <c r="AC5" t="n">
-        <v>739.837466182089</v>
+        <v>883.5700176225297</v>
       </c>
       <c r="AD5" t="n">
-        <v>597770.7745092582</v>
+        <v>713903.1988917748</v>
       </c>
       <c r="AE5" t="n">
-        <v>817896.345468912</v>
+        <v>976793.8519100435</v>
       </c>
       <c r="AF5" t="n">
         <v>7.505886600658765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.87916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>739837.4661820889</v>
+        <v>883570.0176225296</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>599.3833144158931</v>
+        <v>730.2244081267983</v>
       </c>
       <c r="AB2" t="n">
-        <v>820.1026937094096</v>
+        <v>999.1252504263359</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.8332436431425</v>
+        <v>903.7701388067419</v>
       </c>
       <c r="AD2" t="n">
-        <v>599383.3144158931</v>
+        <v>730224.4081267982</v>
       </c>
       <c r="AE2" t="n">
-        <v>820102.6937094096</v>
+        <v>999125.250426336</v>
       </c>
       <c r="AF2" t="n">
         <v>9.05620154630244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>741833.2436431425</v>
+        <v>903770.1388067419</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.1923959616993</v>
+        <v>718.7463387704396</v>
       </c>
       <c r="AB3" t="n">
-        <v>817.1049824238811</v>
+        <v>983.4204495562843</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.1216297153908</v>
+        <v>889.5641820899016</v>
       </c>
       <c r="AD3" t="n">
-        <v>597192.3959616993</v>
+        <v>718746.3387704396</v>
       </c>
       <c r="AE3" t="n">
-        <v>817104.9824238811</v>
+        <v>983420.4495562844</v>
       </c>
       <c r="AF3" t="n">
         <v>9.111429303159577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.30833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>739121.6297153907</v>
+        <v>889564.1820899015</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.5089789229011</v>
+        <v>944.7475308500844</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.028189159761</v>
+        <v>1292.645251028569</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.2339198785955</v>
+        <v>1169.277002509405</v>
       </c>
       <c r="AD2" t="n">
-        <v>802508.9789229011</v>
+        <v>944747.5308500845</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098028.189159761</v>
+        <v>1292645.251028568</v>
       </c>
       <c r="AF2" t="n">
         <v>7.028604831561237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>993233.9198785955</v>
+        <v>1169277.002509405</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.4505843798134</v>
+        <v>706.5883454047729</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.3028295716048</v>
+        <v>966.7853466605673</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.1139279423483</v>
+        <v>874.5167100670379</v>
       </c>
       <c r="AD3" t="n">
-        <v>583450.5843798134</v>
+        <v>706588.3454047729</v>
       </c>
       <c r="AE3" t="n">
-        <v>798302.8295716047</v>
+        <v>966785.3466605672</v>
       </c>
       <c r="AF3" t="n">
         <v>8.496301871097629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>722113.9279423483</v>
+        <v>874516.710067038</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.4926014237923</v>
+        <v>759.2270838726691</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.9853514696341</v>
+        <v>1038.807990889587</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.9593810837961</v>
+        <v>939.6656142152566</v>
       </c>
       <c r="AD2" t="n">
-        <v>620492.6014237923</v>
+        <v>759227.0838726691</v>
       </c>
       <c r="AE2" t="n">
-        <v>848985.3514696341</v>
+        <v>1038807.990889587</v>
       </c>
       <c r="AF2" t="n">
         <v>9.531867724519683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.80416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>767959.381083796</v>
+        <v>939665.6142152566</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1769.576644711601</v>
+        <v>1983.071590859305</v>
       </c>
       <c r="AB2" t="n">
-        <v>2421.212833506199</v>
+        <v>2713.326037557771</v>
       </c>
       <c r="AC2" t="n">
-        <v>2190.135678869921</v>
+        <v>2454.370008710268</v>
       </c>
       <c r="AD2" t="n">
-        <v>1769576.644711601</v>
+        <v>1983071.590859305</v>
       </c>
       <c r="AE2" t="n">
-        <v>2421212.8335062</v>
+        <v>2713326.03755777</v>
       </c>
       <c r="AF2" t="n">
         <v>3.857150280283294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2190135.678869921</v>
+        <v>2454370.008710268</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.6058760888274</v>
+        <v>894.4625470348406</v>
       </c>
       <c r="AB3" t="n">
-        <v>1037.958026993982</v>
+        <v>1223.843117755634</v>
       </c>
       <c r="AC3" t="n">
-        <v>938.8967696809158</v>
+        <v>1107.041248271639</v>
       </c>
       <c r="AD3" t="n">
-        <v>758605.8760888274</v>
+        <v>894462.5470348406</v>
       </c>
       <c r="AE3" t="n">
-        <v>1037958.026993982</v>
+        <v>1223843.117755634</v>
       </c>
       <c r="AF3" t="n">
         <v>6.476312180721752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>938896.7696809157</v>
+        <v>1107041.248271639</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.2665292695816</v>
+        <v>719.7395082367221</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.415879587575</v>
+        <v>984.7793478355965</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.639346518199</v>
+        <v>890.7933890246619</v>
       </c>
       <c r="AD4" t="n">
-        <v>603266.5292695817</v>
+        <v>719739.5082367221</v>
       </c>
       <c r="AE4" t="n">
-        <v>825415.879587575</v>
+        <v>984779.3478355964</v>
       </c>
       <c r="AF4" t="n">
         <v>7.357544325049248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.77916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>746639.346518199</v>
+        <v>890793.3890246619</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.7608751019695</v>
+        <v>720.23385406911</v>
       </c>
       <c r="AB5" t="n">
-        <v>826.092265364447</v>
+        <v>985.4557336124685</v>
       </c>
       <c r="AC5" t="n">
-        <v>747.2511789858398</v>
+        <v>891.4052214923029</v>
       </c>
       <c r="AD5" t="n">
-        <v>603760.8751019696</v>
+        <v>720233.85406911</v>
       </c>
       <c r="AE5" t="n">
-        <v>826092.265364447</v>
+        <v>985455.7336124685</v>
       </c>
       <c r="AF5" t="n">
         <v>7.367197255886246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.74583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>747251.1789858398</v>
+        <v>891405.2214923028</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.2705856289352</v>
+        <v>808.201394212506</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.7795884568067</v>
+        <v>1105.816802890637</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.4286944006162</v>
+        <v>1000.279199246384</v>
       </c>
       <c r="AD2" t="n">
-        <v>661270.5856289353</v>
+        <v>808201.394212506</v>
       </c>
       <c r="AE2" t="n">
-        <v>904779.5884568066</v>
+        <v>1105816.802890637</v>
       </c>
       <c r="AF2" t="n">
         <v>9.679083571744624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>818428.6944006162</v>
+        <v>1000279.199246384</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.650954704624</v>
+        <v>1301.208777390518</v>
       </c>
       <c r="AB2" t="n">
-        <v>1544.270028792806</v>
+        <v>1780.371254505505</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.887064641418</v>
+        <v>1610.455120742248</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128650.954704624</v>
+        <v>1301208.777390518</v>
       </c>
       <c r="AE2" t="n">
-        <v>1544270.028792806</v>
+        <v>1780371.254505505</v>
       </c>
       <c r="AF2" t="n">
         <v>5.384759951265778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.67916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396887.064641418</v>
+        <v>1610455.120742248</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>596.5165357758456</v>
+        <v>711.5778611789621</v>
       </c>
       <c r="AB3" t="n">
-        <v>816.180240700749</v>
+        <v>973.6122222647133</v>
       </c>
       <c r="AC3" t="n">
-        <v>738.2851440444311</v>
+        <v>880.6920382451046</v>
       </c>
       <c r="AD3" t="n">
-        <v>596516.5357758455</v>
+        <v>711577.861178962</v>
       </c>
       <c r="AE3" t="n">
-        <v>816180.240700749</v>
+        <v>973612.2222647133</v>
       </c>
       <c r="AF3" t="n">
         <v>7.873446760202845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.71666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>738285.1440444312</v>
+        <v>880692.0382451046</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>589.2265204371116</v>
+        <v>704.1863606137431</v>
       </c>
       <c r="AB4" t="n">
-        <v>806.2057201015149</v>
+        <v>963.4988451013901</v>
       </c>
       <c r="AC4" t="n">
-        <v>729.2625776918603</v>
+        <v>871.5438676040347</v>
       </c>
       <c r="AD4" t="n">
-        <v>589226.5204371116</v>
+        <v>704186.3606137431</v>
       </c>
       <c r="AE4" t="n">
-        <v>806205.7201015148</v>
+        <v>963498.84510139</v>
       </c>
       <c r="AF4" t="n">
         <v>7.958599019107589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>729262.5776918603</v>
+        <v>871543.8676040347</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1410.569449810519</v>
+        <v>1603.557093060337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1930.003351162909</v>
+        <v>2194.057558671241</v>
       </c>
       <c r="AC2" t="n">
-        <v>1745.806540104637</v>
+        <v>1984.659784650781</v>
       </c>
       <c r="AD2" t="n">
-        <v>1410569.449810519</v>
+        <v>1603557.093060337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1930003.351162909</v>
+        <v>2194057.558671241</v>
       </c>
       <c r="AF2" t="n">
         <v>4.550564385232386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1745806.540104637</v>
+        <v>1984659.784650781</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.5439294705925</v>
+        <v>792.973939686401</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.3630542613598</v>
+        <v>1084.981927820139</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.1929662757526</v>
+        <v>981.4327754106839</v>
       </c>
       <c r="AD3" t="n">
-        <v>667543.9294705925</v>
+        <v>792973.9396864009</v>
       </c>
       <c r="AE3" t="n">
-        <v>913363.0542613599</v>
+        <v>1084981.927820139</v>
       </c>
       <c r="AF3" t="n">
         <v>7.174214131184906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.57083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>826192.9662757526</v>
+        <v>981432.7754106839</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.5208822040379</v>
+        <v>706.6497225828437</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.659164143098</v>
+        <v>966.8693256233735</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.2411667231598</v>
+        <v>874.5926741954994</v>
       </c>
       <c r="AD4" t="n">
-        <v>600520.8822040379</v>
+        <v>706649.7225828436</v>
       </c>
       <c r="AE4" t="n">
-        <v>821659.1641430981</v>
+        <v>966869.3256233735</v>
       </c>
       <c r="AF4" t="n">
         <v>7.643780596519846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.05833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>743241.1667231598</v>
+        <v>874592.6741954994</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2243.373997913891</v>
+        <v>2487.343387106685</v>
       </c>
       <c r="AB2" t="n">
-        <v>3069.483274621749</v>
+        <v>3403.292956085175</v>
       </c>
       <c r="AC2" t="n">
-        <v>2776.536098938567</v>
+        <v>3078.487452907941</v>
       </c>
       <c r="AD2" t="n">
-        <v>2243373.997913891</v>
+        <v>2487343.387106685</v>
       </c>
       <c r="AE2" t="n">
-        <v>3069483.274621749</v>
+        <v>3403292.956085175</v>
       </c>
       <c r="AF2" t="n">
         <v>3.261063402332728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2776536.098938567</v>
+        <v>3078487.452907941</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>858.1261827439818</v>
+        <v>994.7043871922931</v>
       </c>
       <c r="AB3" t="n">
-        <v>1174.126101085626</v>
+        <v>1360.998425816934</v>
       </c>
       <c r="AC3" t="n">
-        <v>1062.069153894345</v>
+        <v>1231.106646230253</v>
       </c>
       <c r="AD3" t="n">
-        <v>858126.1827439817</v>
+        <v>994704.3871922931</v>
       </c>
       <c r="AE3" t="n">
-        <v>1174126.101085626</v>
+        <v>1360998.425816934</v>
       </c>
       <c r="AF3" t="n">
         <v>5.909523738637621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1062069.153894345</v>
+        <v>1231106.646230253</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>655.3789956034641</v>
+        <v>772.4315300982331</v>
       </c>
       <c r="AB4" t="n">
-        <v>896.7184550653493</v>
+        <v>1056.874896754458</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.1369042661679</v>
+        <v>956.0082399414456</v>
       </c>
       <c r="AD4" t="n">
-        <v>655378.9956034641</v>
+        <v>772431.5300982331</v>
       </c>
       <c r="AE4" t="n">
-        <v>896718.4550653493</v>
+        <v>1056874.896754458</v>
       </c>
       <c r="AF4" t="n">
         <v>6.907455286875054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.19583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>811136.9042661679</v>
+        <v>956008.2399414456</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>615.9150499601386</v>
+        <v>733.0349042626121</v>
       </c>
       <c r="AB5" t="n">
-        <v>842.7221436097453</v>
+        <v>1002.970695229695</v>
       </c>
       <c r="AC5" t="n">
-        <v>762.2939249915876</v>
+        <v>907.2485797551842</v>
       </c>
       <c r="AD5" t="n">
-        <v>615915.0499601386</v>
+        <v>733034.9042626121</v>
       </c>
       <c r="AE5" t="n">
-        <v>842722.1436097453</v>
+        <v>1002970.695229695</v>
       </c>
       <c r="AF5" t="n">
         <v>7.117040139973089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>762293.9249915875</v>
+        <v>907248.5797551842</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.4097420080756</v>
+        <v>1058.624128608888</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.189796991057</v>
+        <v>1448.456235963088</v>
       </c>
       <c r="AC2" t="n">
-        <v>1121.827823383542</v>
+        <v>1310.217605723865</v>
       </c>
       <c r="AD2" t="n">
-        <v>906409.7420080756</v>
+        <v>1058624.128608888</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240189.796991057</v>
+        <v>1448456.235963088</v>
       </c>
       <c r="AF2" t="n">
         <v>6.409233794243772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1121827.823383542</v>
+        <v>1310217.605723865</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.3502099927564</v>
+        <v>702.5197940555247</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.0067134914598</v>
+        <v>961.2185752127081</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.1780025898524</v>
+        <v>869.4812234731498</v>
       </c>
       <c r="AD3" t="n">
-        <v>588350.2099927564</v>
+        <v>702519.7940555247</v>
       </c>
       <c r="AE3" t="n">
-        <v>805006.7134914597</v>
+        <v>961218.5752127081</v>
       </c>
       <c r="AF3" t="n">
         <v>8.296671407224378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>728178.0025898524</v>
+        <v>869481.2234731498</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.2307709944224</v>
+        <v>760.8096727366969</v>
       </c>
       <c r="AB2" t="n">
-        <v>860.9413005770042</v>
+        <v>1040.973358792243</v>
       </c>
       <c r="AC2" t="n">
-        <v>778.7742711886386</v>
+        <v>941.6243224443958</v>
       </c>
       <c r="AD2" t="n">
-        <v>629230.7709944224</v>
+        <v>760809.6727366969</v>
       </c>
       <c r="AE2" t="n">
-        <v>860941.3005770042</v>
+        <v>1040973.358792243</v>
       </c>
       <c r="AF2" t="n">
         <v>8.526805495249678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>778774.2711886386</v>
+        <v>941624.3224443959</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>587.9846070552904</v>
+        <v>710.1967408476989</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.5064794231556</v>
+        <v>971.7225124967505</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.7255101589444</v>
+        <v>878.9826797251718</v>
       </c>
       <c r="AD3" t="n">
-        <v>587984.6070552905</v>
+        <v>710196.740847699</v>
       </c>
       <c r="AE3" t="n">
-        <v>804506.4794231557</v>
+        <v>971722.5124967505</v>
       </c>
       <c r="AF3" t="n">
         <v>8.902394869129426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>727725.5101589444</v>
+        <v>878982.6797251718</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.8951950563458</v>
+        <v>736.0772536769929</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.0125360855753</v>
+        <v>1007.133371917434</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.8927431679693</v>
+        <v>911.0139764221989</v>
       </c>
       <c r="AD2" t="n">
-        <v>605895.1950563458</v>
+        <v>736077.2536769928</v>
       </c>
       <c r="AE2" t="n">
-        <v>829012.5360855754</v>
+        <v>1007133.371917434</v>
       </c>
       <c r="AF2" t="n">
         <v>9.326191219010744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>749892.7431679694</v>
+        <v>911013.9764221989</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.7955505352011</v>
+        <v>880.8802632558214</v>
       </c>
       <c r="AB2" t="n">
-        <v>980.7512950301283</v>
+        <v>1205.25923788111</v>
       </c>
       <c r="AC2" t="n">
-        <v>887.14976792554</v>
+        <v>1090.230987809701</v>
       </c>
       <c r="AD2" t="n">
-        <v>716795.5505352011</v>
+        <v>880880.2632558214</v>
       </c>
       <c r="AE2" t="n">
-        <v>980751.2950301283</v>
+        <v>1205259.23788111</v>
       </c>
       <c r="AF2" t="n">
         <v>9.666832358017723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>887149.76792554</v>
+        <v>1090230.9878097</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.60404319647</v>
+        <v>1444.358146429817</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.18230994365</v>
+        <v>1976.234536529522</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.437892994715</v>
+        <v>1787.625486025737</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261604.04319647</v>
+        <v>1444358.146429817</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726182.30994365</v>
+        <v>1976234.536529522</v>
       </c>
       <c r="AF2" t="n">
         <v>4.949534982390343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561437.892994715</v>
+        <v>1787625.486025737</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>632.2015865161403</v>
+        <v>747.5794890150421</v>
       </c>
       <c r="AB3" t="n">
-        <v>865.0061014369496</v>
+        <v>1022.871237749763</v>
       </c>
       <c r="AC3" t="n">
-        <v>782.4511331594945</v>
+        <v>925.2498424277236</v>
       </c>
       <c r="AD3" t="n">
-        <v>632201.5865161403</v>
+        <v>747579.4890150421</v>
       </c>
       <c r="AE3" t="n">
-        <v>865006.1014369496</v>
+        <v>1022871.237749763</v>
       </c>
       <c r="AF3" t="n">
         <v>7.5437020124436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>782451.1331594945</v>
+        <v>925249.8424277236</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.8418767167658</v>
+        <v>710.185613796887</v>
       </c>
       <c r="AB4" t="n">
-        <v>813.8888982953727</v>
+        <v>971.7072879749385</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.2124841423048</v>
+        <v>878.9689082103537</v>
       </c>
       <c r="AD4" t="n">
-        <v>594841.8767167658</v>
+        <v>710185.613796887</v>
       </c>
       <c r="AE4" t="n">
-        <v>813888.8982953726</v>
+        <v>971707.2879749385</v>
       </c>
       <c r="AF4" t="n">
         <v>7.793810336098971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>736212.4841423047</v>
+        <v>878968.9082103537</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1988.843075103027</v>
+        <v>2212.711317533403</v>
       </c>
       <c r="AB2" t="n">
-        <v>2721.222836919946</v>
+        <v>3027.529242583177</v>
       </c>
       <c r="AC2" t="n">
-        <v>2461.513148624545</v>
+        <v>2738.586100834904</v>
       </c>
       <c r="AD2" t="n">
-        <v>1988843.075103027</v>
+        <v>2212711.317533403</v>
       </c>
       <c r="AE2" t="n">
-        <v>2721222.836919946</v>
+        <v>3027529.242583177</v>
       </c>
       <c r="AF2" t="n">
         <v>3.550315295095997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2461513.148624544</v>
+        <v>2738586.100834904</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>806.9443048372332</v>
+        <v>943.1172572934059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.09679774852</v>
+        <v>1290.414638825728</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.7233489809884</v>
+        <v>1167.25927680452</v>
       </c>
       <c r="AD3" t="n">
-        <v>806944.3048372332</v>
+        <v>943117.2572934059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104096.79774852</v>
+        <v>1290414.638825728</v>
       </c>
       <c r="AF3" t="n">
         <v>6.186030380772268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>998723.3489809884</v>
+        <v>1167259.27680452</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>619.5614179944238</v>
+        <v>736.3631980911622</v>
       </c>
       <c r="AB4" t="n">
-        <v>847.7112652206587</v>
+        <v>1007.524613679878</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.8068918382312</v>
+        <v>911.3678786199463</v>
       </c>
       <c r="AD4" t="n">
-        <v>619561.4179944238</v>
+        <v>736363.1980911621</v>
       </c>
       <c r="AE4" t="n">
-        <v>847711.2652206586</v>
+        <v>1007524.613679878</v>
       </c>
       <c r="AF4" t="n">
         <v>7.15644203399844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.88333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>766806.8918382312</v>
+        <v>911367.8786199463</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>610.2473872632174</v>
+        <v>727.0491673599557</v>
       </c>
       <c r="AB5" t="n">
-        <v>834.9673974681865</v>
+        <v>994.7807459274057</v>
       </c>
       <c r="AC5" t="n">
-        <v>755.2792809379246</v>
+        <v>899.8402677196394</v>
       </c>
       <c r="AD5" t="n">
-        <v>610247.3872632175</v>
+        <v>727049.1673599557</v>
       </c>
       <c r="AE5" t="n">
-        <v>834967.3974681864</v>
+        <v>994780.7459274058</v>
       </c>
       <c r="AF5" t="n">
         <v>7.238194008024784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>755279.2809379245</v>
+        <v>899840.2677196395</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.1870052010047</v>
+        <v>1062.738245844737</v>
       </c>
       <c r="AB2" t="n">
-        <v>1182.41878575594</v>
+        <v>1454.08535266722</v>
       </c>
       <c r="AC2" t="n">
-        <v>1069.570396378581</v>
+        <v>1315.30948743027</v>
       </c>
       <c r="AD2" t="n">
-        <v>864187.0052010047</v>
+        <v>1062738.245844737</v>
       </c>
       <c r="AE2" t="n">
-        <v>1182418.78575594</v>
+        <v>1454085.35266722</v>
       </c>
       <c r="AF2" t="n">
         <v>9.207528522445759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1069570.396378581</v>
+        <v>1315309.48743027</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>703.8593105686622</v>
+        <v>845.4375976388186</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.0513608012807</v>
+        <v>1156.765019163874</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.1390905774797</v>
+        <v>1046.364989264774</v>
       </c>
       <c r="AD2" t="n">
-        <v>703859.3105686621</v>
+        <v>845437.5976388186</v>
       </c>
       <c r="AE2" t="n">
-        <v>963051.3608012807</v>
+        <v>1156765.019163874</v>
       </c>
       <c r="AF2" t="n">
         <v>7.75897264879176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>871139.0905774797</v>
+        <v>1046364.989264774</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.9425665533447</v>
+        <v>703.6688033212528</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.8712489354929</v>
+        <v>962.7907003807886</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.0098525458931</v>
+        <v>870.9033072216803</v>
       </c>
       <c r="AD3" t="n">
-        <v>580942.5665533447</v>
+        <v>703668.8033212528</v>
       </c>
       <c r="AE3" t="n">
-        <v>794871.2489354928</v>
+        <v>962790.7003807887</v>
       </c>
       <c r="AF3" t="n">
         <v>8.6925861337998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>719009.8525458931</v>
+        <v>870903.3072216803</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1008.668693212632</v>
+        <v>1171.068642928928</v>
       </c>
       <c r="AB2" t="n">
-        <v>1380.105005375663</v>
+        <v>1602.307781157631</v>
       </c>
       <c r="AC2" t="n">
-        <v>1248.38972065215</v>
+        <v>1449.385775377041</v>
       </c>
       <c r="AD2" t="n">
-        <v>1008668.693212632</v>
+        <v>1171068.642928928</v>
       </c>
       <c r="AE2" t="n">
-        <v>1380105.005375663</v>
+        <v>1602307.781157631</v>
       </c>
       <c r="AF2" t="n">
         <v>5.864173758266164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1248389.72065215</v>
+        <v>1449385.775377041</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.1240120476938</v>
+        <v>708.2700045487205</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.2242430163304</v>
+        <v>969.0862668908818</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.9474029811213</v>
+        <v>876.5980336999334</v>
       </c>
       <c r="AD3" t="n">
-        <v>584124.0120476938</v>
+        <v>708270.0045487205</v>
       </c>
       <c r="AE3" t="n">
-        <v>799224.2430163304</v>
+        <v>969086.2668908818</v>
       </c>
       <c r="AF3" t="n">
         <v>8.108658607412318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>722947.4029811213</v>
+        <v>876598.0336999333</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.2153705860819</v>
+        <v>699.8747459755481</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.7174879158937</v>
+        <v>957.5995037383984</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.2981346832526</v>
+        <v>866.2075511009498</v>
       </c>
       <c r="AD4" t="n">
-        <v>585215.3705860819</v>
+        <v>699874.7459755481</v>
       </c>
       <c r="AE4" t="n">
-        <v>800717.4879158937</v>
+        <v>957599.5037383984</v>
       </c>
       <c r="AF4" t="n">
         <v>8.121156254540993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>724298.1346832525</v>
+        <v>866207.5511009498</v>
       </c>
     </row>
   </sheetData>
